--- a/docs/data_example/sinhvien.xlsx
+++ b/docs/data_example/sinhvien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>code</t>
   </si>
@@ -24,6 +24,54 @@
   </si>
   <si>
     <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>training_id</t>
+  </si>
+  <si>
+    <t>Trần Hữu</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>minhth1905@gmail.com</t>
+  </si>
+  <si>
+    <t>k58</t>
+  </si>
+  <si>
+    <t>Chinh quy</t>
+  </si>
+  <si>
+    <t>Dương Quốc</t>
+  </si>
+  <si>
+    <t>Phong</t>
+  </si>
+  <si>
+    <t>phonga3cvp@gmail.com</t>
+  </si>
+  <si>
+    <t>Chat luong cao</t>
+  </si>
+  <si>
+    <t>Tô Mạnh</t>
+  </si>
+  <si>
+    <t>Hiêp</t>
+  </si>
+  <si>
+    <t>hiep1996tb@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuan quoc te</t>
   </si>
 </sst>
 </file>
@@ -33,11 +81,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -53,6 +102,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,8 +153,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -119,15 +179,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -140,8 +203,82 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>14020598</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>13247583</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>12233444</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="minhth1905@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="phonga3cvp@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="hiep1996tb@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/data_example/sinhvien.xlsx
+++ b/docs/data_example/sinhvien.xlsx
@@ -44,7 +44,7 @@
     <t>minhth1905@gmail.com</t>
   </si>
   <si>
-    <t>k58</t>
+    <t>K58</t>
   </si>
   <si>
     <t>Chinh quy</t>
@@ -182,7 +182,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/docs/data_example/sinhvien.xlsx
+++ b/docs/data_example/sinhvien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>code</t>
   </si>
@@ -62,16 +62,25 @@
     <t>Chat luong cao</t>
   </si>
   <si>
-    <t>Tô Mạnh</t>
-  </si>
-  <si>
-    <t>Hiêp</t>
-  </si>
-  <si>
-    <t>hiep1996tb@gmail.com</t>
+    <t>Nguyễn Thanh</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
   <si>
     <t>Chuan quoc te</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -179,18 +188,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6734693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,11 +285,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>14023321</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="minhth1905@gmail.com"/>
     <hyperlink ref="D3" r:id="rId2" display="phonga3cvp@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="hiep1996tb@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="abc@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="xyz@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/data_example/sinhvien.xlsx
+++ b/docs/data_example/sinhvien.xlsx
@@ -56,7 +56,7 @@
     <t>Phong</t>
   </si>
   <si>
-    <t>phonga3cvp@gmail.com</t>
+    <t>addd@gmail.com</t>
   </si>
   <si>
     <t>Chat luong cao</t>
@@ -191,7 +191,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -308,7 +308,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="minhth1905@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="phonga3cvp@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="addd@gmail.com"/>
     <hyperlink ref="D4" r:id="rId3" display="abc@gmail.com"/>
     <hyperlink ref="D5" r:id="rId4" display="xyz@gmail.com"/>
   </hyperlinks>
